--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H2">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I2">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J2">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>175.6531148736053</v>
+        <v>470.0281901687609</v>
       </c>
       <c r="R2">
-        <v>175.6531148736053</v>
+        <v>4230.253711518848</v>
       </c>
       <c r="S2">
-        <v>0.004363643797531106</v>
+        <v>0.01002990918118222</v>
       </c>
       <c r="T2">
-        <v>0.004363643797531106</v>
+        <v>0.01118483976063339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H3">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I3">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J3">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>196.7256924875614</v>
+        <v>502.9978650362132</v>
       </c>
       <c r="R3">
-        <v>196.7256924875614</v>
+        <v>4526.98078532592</v>
       </c>
       <c r="S3">
-        <v>0.004887137062477187</v>
+        <v>0.01073344750413881</v>
       </c>
       <c r="T3">
-        <v>0.004887137062477187</v>
+        <v>0.01196938957714596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H4">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I4">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J4">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>101.2100493192492</v>
+        <v>252.5716605640462</v>
       </c>
       <c r="R4">
-        <v>101.2100493192492</v>
+        <v>2273.144945076416</v>
       </c>
       <c r="S4">
-        <v>0.002514299870386888</v>
+        <v>0.005389614644790155</v>
       </c>
       <c r="T4">
-        <v>0.002514299870386888</v>
+        <v>0.006010221536864958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H5">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I5">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J5">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>120.4114982264607</v>
+        <v>288.5647829240765</v>
       </c>
       <c r="R5">
-        <v>120.4114982264607</v>
+        <v>2597.083046316689</v>
       </c>
       <c r="S5">
-        <v>0.002991309819728553</v>
+        <v>0.006157670169903798</v>
       </c>
       <c r="T5">
-        <v>0.002991309819728553</v>
+        <v>0.006866717624763998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H6">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I6">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J6">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>237.6012894522632</v>
+        <v>575.572729706888</v>
       </c>
       <c r="R6">
-        <v>237.6012894522632</v>
+        <v>3453.436378241328</v>
       </c>
       <c r="S6">
-        <v>0.005902584726435491</v>
+        <v>0.01228211908747959</v>
       </c>
       <c r="T6">
-        <v>0.005902584726435491</v>
+        <v>0.009130925743057359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H7">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J7">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>7995.713112066064</v>
+        <v>9669.132700783575</v>
       </c>
       <c r="R7">
-        <v>7995.713112066064</v>
+        <v>87022.19430705217</v>
       </c>
       <c r="S7">
-        <v>0.1986326513675054</v>
+        <v>0.2063291625441404</v>
       </c>
       <c r="T7">
-        <v>0.1986326513675054</v>
+        <v>0.230087688663386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H8">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J8">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>8954.934844366</v>
+        <v>10347.3647048696</v>
       </c>
       <c r="R8">
-        <v>8954.934844366</v>
+        <v>93126.2823438264</v>
       </c>
       <c r="S8">
-        <v>0.2224620150859886</v>
+        <v>0.2208019230020006</v>
       </c>
       <c r="T8">
-        <v>0.2224620150859886</v>
+        <v>0.2462269680617382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H9">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J9">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>4607.071835857184</v>
+        <v>5195.749858267413</v>
       </c>
       <c r="R9">
-        <v>4607.071835857184</v>
+        <v>46761.74872440672</v>
       </c>
       <c r="S9">
-        <v>0.1144506913856006</v>
+        <v>0.110871858957761</v>
       </c>
       <c r="T9">
-        <v>0.1144506913856006</v>
+        <v>0.1236386046977083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H10">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J10">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>5481.11996707611</v>
+        <v>5936.178376586108</v>
       </c>
       <c r="R10">
-        <v>5481.11996707611</v>
+        <v>53425.60538927497</v>
       </c>
       <c r="S10">
-        <v>0.1361641389910221</v>
+        <v>0.1266718278728753</v>
       </c>
       <c r="T10">
-        <v>0.1361641389910221</v>
+        <v>0.1412579188257063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H11">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J11">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>10815.58813735981</v>
+        <v>11840.33047143396</v>
       </c>
       <c r="R11">
-        <v>10815.58813735981</v>
+        <v>71041.98282860377</v>
       </c>
       <c r="S11">
-        <v>0.2686850963400308</v>
+        <v>0.2526602484438814</v>
       </c>
       <c r="T11">
-        <v>0.2686850963400308</v>
+        <v>0.1878358246106965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H12">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I12">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J12">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>331.1423690656069</v>
+        <v>2.665370768539556</v>
       </c>
       <c r="R12">
-        <v>331.1423690656069</v>
+        <v>23.988336916856</v>
       </c>
       <c r="S12">
-        <v>0.008226369033721157</v>
+        <v>5.687621998380803E-05</v>
       </c>
       <c r="T12">
-        <v>0.008226369033721157</v>
+        <v>6.34254403721774E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H13">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I13">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J13">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>370.8685263752879</v>
+        <v>2.852330634943333</v>
       </c>
       <c r="R13">
-        <v>370.8685263752879</v>
+        <v>25.67097571449</v>
       </c>
       <c r="S13">
-        <v>0.009213261865475794</v>
+        <v>6.086574767550365E-05</v>
       </c>
       <c r="T13">
-        <v>0.009213261865475794</v>
+        <v>6.787435682258195E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H14">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I14">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J14">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>190.80182852971</v>
+        <v>1.432248395116889</v>
       </c>
       <c r="R14">
-        <v>190.80182852971</v>
+        <v>12.890235556052</v>
       </c>
       <c r="S14">
-        <v>0.004739974103051745</v>
+        <v>3.056268034212713E-05</v>
       </c>
       <c r="T14">
-        <v>0.004739974103051745</v>
+        <v>3.408193196041081E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H15">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I15">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J15">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>227.0005221036984</v>
+        <v>1.636353208856778</v>
       </c>
       <c r="R15">
-        <v>227.0005221036984</v>
+        <v>14.727178879711</v>
       </c>
       <c r="S15">
-        <v>0.005639236292660658</v>
+        <v>3.491806324909317E-05</v>
       </c>
       <c r="T15">
-        <v>0.005639236292660658</v>
+        <v>3.893883136305075E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01928366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.057851</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528704512716912</v>
+      </c>
+      <c r="J16">
+        <v>0.0002560989497176267</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>3.263878126923501</v>
+      </c>
+      <c r="R16">
+        <v>19.583268761541</v>
+      </c>
+      <c r="S16">
+        <v>6.964774002115921E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.177838919940575E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.8840685</v>
+      </c>
+      <c r="H17">
+        <v>5.768137</v>
+      </c>
+      <c r="I17">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J17">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>398.6333101086787</v>
+      </c>
+      <c r="R17">
+        <v>2391.799860652072</v>
+      </c>
+      <c r="S17">
+        <v>0.008506417233290932</v>
+      </c>
+      <c r="T17">
+        <v>0.006323946506578111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.8840685</v>
+      </c>
+      <c r="H18">
+        <v>5.768137</v>
+      </c>
+      <c r="I18">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J18">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>426.595059851605</v>
+      </c>
+      <c r="R18">
+        <v>2559.57035910963</v>
+      </c>
+      <c r="S18">
+        <v>0.009103091680344417</v>
+      </c>
+      <c r="T18">
+        <v>0.006767533645737107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="H16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="I16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="J16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>447.9274616842467</v>
-      </c>
-      <c r="R16">
-        <v>447.9274616842467</v>
-      </c>
-      <c r="S16">
-        <v>0.01112759025838388</v>
-      </c>
-      <c r="T16">
-        <v>0.01112759025838388</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.8840685</v>
+      </c>
+      <c r="H19">
+        <v>5.768137</v>
+      </c>
+      <c r="I19">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J19">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>214.2073160636207</v>
+      </c>
+      <c r="R19">
+        <v>1285.243896381724</v>
+      </c>
+      <c r="S19">
+        <v>0.004570959723270026</v>
+      </c>
+      <c r="T19">
+        <v>0.003398199733320567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.8840685</v>
+      </c>
+      <c r="H20">
+        <v>5.768137</v>
+      </c>
+      <c r="I20">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J20">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>244.7332670759929</v>
+      </c>
+      <c r="R20">
+        <v>1468.399602455957</v>
+      </c>
+      <c r="S20">
+        <v>0.005222351539180857</v>
+      </c>
+      <c r="T20">
+        <v>0.003882465539437062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.8840685</v>
+      </c>
+      <c r="H21">
+        <v>5.768137</v>
+      </c>
+      <c r="I21">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J21">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>488.1461734645418</v>
+      </c>
+      <c r="R21">
+        <v>1952.584693858167</v>
+      </c>
+      <c r="S21">
+        <v>0.01041652796448884</v>
+      </c>
+      <c r="T21">
+        <v>0.005162656523508544</v>
       </c>
     </row>
   </sheetData>
